--- a/biology/Zoologie/Bathyraja_andriashevi/Bathyraja_andriashevi.xlsx
+++ b/biology/Zoologie/Bathyraja_andriashevi/Bathyraja_andriashevi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bathyraja andriashevi est une espèce de raies de la famille des Arhynchobatidae que l'on retrouve dans l'ouest de l'Océan Pacifique.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peut atteindre une taille de 75,6 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peut atteindre une taille de 75,6 cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette raie se rencontre au Japon, en Indonésie et en Russie[2],[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette raie se rencontre au Japon, en Indonésie et en Russie,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bathyraja andriashevi évolue à une profondeur de 1 390 m à 2 004 m[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bathyraja andriashevi évolue à une profondeur de 1 390 m à 2 004 m.
 </t>
         </is>
       </c>
@@ -604,11 +622,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bathyraja andriashevi Dolganov, 1983[3].
-Étymologie
-Le poisson est nommé en l'honneur de l'ichtyologiste soviétique Anatoly Petrovich Andriashev (1910–2009)[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bathyraja andriashevi Dolganov, 1983.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bathyraja_andriashevi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bathyraja_andriashevi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson est nommé en l'honneur de l'ichtyologiste soviétique Anatoly Petrovich Andriashev (1910–2009).
 </t>
         </is>
       </c>
